--- a/StarlingX_CentOS8.0_Kernel_Upgrade_Q&A List.xlsx
+++ b/StarlingX_CentOS8.0_Kernel_Upgrade_Q&A List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Neusoft\Centos8\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ABA3F5-95BA-4CE0-B6B0-0896C820C8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q&amp;A" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,15 @@
   <definedNames>
     <definedName name="功能">Define!$B$3:$B$13</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -59,9 +68,6 @@
   </si>
   <si>
     <t>Answer day</t>
-  </si>
-  <si>
-    <t>状态</t>
   </si>
   <si>
     <t>yongxfu</t>
@@ -139,16 +145,20 @@
   <si>
     <t>After the build-pkgs command is executed, the tar command prompts an error when creating a tarball.</t>
   </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d;@"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -185,6 +195,19 @@
       <color indexed="16"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -492,7 +515,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -508,18 +531,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,10 +604,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="样式 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1059,43 +1082,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.8984375" customWidth="1"/>
-    <col min="2" max="2" width="4.09765625" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="1" max="1" width="1.875" customWidth="1"/>
+    <col min="2" max="2" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="41.69921875" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" width="41.75" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
     <col min="8" max="8" width="47" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" customWidth="1"/>
-    <col min="10" max="10" width="14.296875" customWidth="1"/>
-    <col min="11" max="11" width="14.09765625" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="23.4">
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="2:11" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="2:11">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1104,7 +1127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1113,8 +1136,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="5.4" customHeight="1"/>
-    <row r="5" spans="2:11" s="4" customFormat="1" ht="16.2">
+    <row r="4" spans="2:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1142,635 +1165,636 @@
       <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="83.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>43770</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="83.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="33">
+      <c r="E6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="83.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
+      <c r="C7" s="32">
         <v>43770</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="31">
+        <v>43773</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="83.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16">
+        <v>3</v>
+      </c>
+      <c r="C8" s="31">
+        <v>43774</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="31">
+        <v>43774</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16">
+        <v>6</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16">
+        <v>7</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="16">
+        <v>8</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="16">
+        <v>9</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="16">
+        <v>10</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="16">
+        <v>11</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16">
+        <v>12</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="16">
         <v>13</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="16">
         <v>14</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="16">
         <v>15</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="16">
         <v>16</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="16" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" ht="83.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="17">
-        <v>2</v>
-      </c>
-      <c r="C7" s="33">
-        <v>43770</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="16">
+        <v>18</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="16">
+        <v>19</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="16">
+        <v>20</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="16">
+        <v>21</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="16">
+        <v>22</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="16">
         <v>23</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="16">
         <v>24</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="32">
-        <v>43773</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="83.25" customHeight="1" thickTop="1">
-      <c r="B8" s="17">
-        <v>3</v>
-      </c>
-      <c r="C8" s="32">
-        <v>43774</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="16">
         <v>25</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="32">
-        <v>43774</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B9" s="17">
-        <v>4</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B10" s="17">
-        <v>5</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B11" s="17">
-        <v>6</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B12" s="17">
-        <v>7</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B13" s="17">
-        <v>8</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B14" s="17">
-        <v>9</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B15" s="17">
-        <v>10</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B16" s="17">
-        <v>11</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B17" s="17">
-        <v>12</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B18" s="17">
-        <v>13</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B19" s="17">
-        <v>14</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B20" s="17">
-        <v>15</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B21" s="17">
-        <v>16</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B22" s="17">
-        <v>17</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B23" s="17">
-        <v>18</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B24" s="17">
-        <v>19</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B25" s="17">
-        <v>20</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B26" s="17">
-        <v>21</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B27" s="17">
-        <v>22</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B28" s="17">
-        <v>23</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B29" s="17">
-        <v>24</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B30" s="17">
-        <v>25</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
-    </row>
-    <row r="31" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B31" s="17">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="16">
         <v>26</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B32" s="17">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="16">
         <v>27</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B33" s="17">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="16">
         <v>28</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B34" s="17">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="16">
         <v>29</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B35" s="17">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="16">
         <v>30</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
-    </row>
-    <row r="36" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B36" s="17">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="16">
         <v>31</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
-    </row>
-    <row r="37" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B37" s="17">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="16">
         <v>32</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B38" s="17">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="16">
         <v>33</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B39" s="17">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="16">
         <v>34</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B40" s="17">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="16">
         <v>35</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
-    </row>
-    <row r="41" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B41" s="17">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="16">
         <v>36</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B42" s="17">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="16">
         <v>37</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B43" s="17">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="20"/>
+    </row>
+    <row r="43" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="16">
         <v>38</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B44" s="17">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="20"/>
+    </row>
+    <row r="44" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="16">
         <v>39</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="21"/>
-    </row>
-    <row r="45" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B45" s="17">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="16">
         <v>40</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="2:11" ht="83.25" customHeight="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="25"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="24"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B7:B45 B6:K6">
     <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>$K$6="OK"</formula>
@@ -1797,83 +1821,84 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K46">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K46" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Open,Close,Waiting,Clear"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6:G46">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6:G46" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High,Middle,low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:F46">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:F46" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>功能</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="1.75" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="27" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="30">
-      <c r="B5" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="28"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="28"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="30"/>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="30"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="30"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="30"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="30"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="31"/>
+    <row r="5" spans="2:2" ht="33" x14ac:dyDescent="0.35">
+      <c r="B5" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="29"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="29"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="29"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="30"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>

--- a/StarlingX_CentOS8.0_Kernel_Upgrade_Q&A List.xlsx
+++ b/StarlingX_CentOS8.0_Kernel_Upgrade_Q&A List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Neusoft\Centos8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dongqicx\Desktop\centos8\Centos8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ABA3F5-95BA-4CE0-B6B0-0896C820C8D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Q&amp;A" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="功能">Define!$B$3:$B$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>StarlingX CentOS8.0 Kernel upgrade Q&amp;A List</t>
   </si>
@@ -149,16 +148,91 @@
     <t>Status</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Chen,DongqiX</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>Determine the puppet version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+In the "Kernel_Upgrade_to_4.18-CentOS8_Analysis.xlsx" srpm sheet, there is no upstream srpm of puppet and its related series. First we need to confirm what version of puppet to upgrade to el8, and then patch upgrade.
+E.g
+Currently, the version of puppet in starlingx is puppet-4.8.2-1.el7.src.rpm,
+The higher version has:
+Puppet-5.5.10-5.el7.src.rpm
+Puppet-5.5.6-1.el7.src.rpm
+Puppet-5.5.1-2.el7.src.rpm
+Puppet related series
+The version of puppet-ceilometer in starlingx is puppet-ceilometer-11.3.0-1.el7.src.rpm,
+The higher version has:
+Puppet-ceilometer-15.4.0-1.el7.src.rpm
+Puppet-ceilometer-14.4.0-1.el7.src.rpm
+Puppet-ceilometer-13.3.1-1.el7.src.rpm
+Puppet-ceilometer-12.5.0-1.el7.src.rpm
+Puppet-ceilometer-12.4.0-1.el7.src.rpm
+Puppet-ceilometer-11.5.0-1.el7.src.rpm
+Does the upgrade to el8 use the original version or a higher version?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Determine the python version
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t xml:space="preserve">Whether python-2.7.5-76.el7.src.rpm needs to be replaced with python3.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>Python related srpm
+E.g
+Openstack-aodh-5.1.0-1.el7.src.rpm
+The dependency in spec is not explicitly python2, or python3
+Do you need to replace all of them with python3?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-m\-d"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -210,6 +284,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -495,7 +578,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,7 +598,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -531,14 +614,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,17 +684,23 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="样式 1" xfId="1"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -1082,62 +1171,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.875" customWidth="1"/>
-    <col min="2" max="2" width="4.125" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="1.8984375" customWidth="1"/>
+    <col min="2" max="2" width="4.09765625" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="41.75" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="41.69921875" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
     <col min="8" max="8" width="47" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
-    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="14.59765625" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" customWidth="1"/>
+    <col min="11" max="11" width="14.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:11" ht="23.4">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+    </row>
+    <row r="2" spans="2:11">
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="3">
         <f>COUNTA($C$6:$C$1998)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
       <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="3">
         <f>K2-COUNTIF($K$6:$K$1998,"OK")</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="5.45" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="5.4" customHeight="1"/>
+    <row r="5" spans="2:11" s="4" customFormat="1" ht="16.2">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1165,11 +1254,11 @@
       <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="83.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" ht="83.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B6" s="11">
         <v>1</v>
       </c>
@@ -1195,7 +1284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="83.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:11" ht="83.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="B7" s="16">
         <v>2</v>
       </c>
@@ -1227,7 +1316,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="83.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:11" ht="83.25" customHeight="1" thickTop="1">
       <c r="B8" s="16">
         <v>3</v>
       </c>
@@ -1259,35 +1348,55 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="83.25" customHeight="1">
       <c r="B9" s="16">
         <v>4</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="31">
+        <v>43777</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="H9" s="17"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" ht="83.25" customHeight="1">
       <c r="B10" s="16">
         <v>5</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="31">
+        <v>43777</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="H10" s="17"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="83.25" customHeight="1">
       <c r="B11" s="16">
         <v>6</v>
       </c>
@@ -1301,7 +1410,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="83.25" customHeight="1">
       <c r="B12" s="16">
         <v>7</v>
       </c>
@@ -1315,7 +1424,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="83.25" customHeight="1">
       <c r="B13" s="16">
         <v>8</v>
       </c>
@@ -1329,7 +1438,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="83.25" customHeight="1">
       <c r="B14" s="16">
         <v>9</v>
       </c>
@@ -1343,7 +1452,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="83.25" customHeight="1">
       <c r="B15" s="16">
         <v>10</v>
       </c>
@@ -1357,7 +1466,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:11" ht="83.25" customHeight="1">
       <c r="B16" s="16">
         <v>11</v>
       </c>
@@ -1371,7 +1480,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" ht="83.25" customHeight="1">
       <c r="B17" s="16">
         <v>12</v>
       </c>
@@ -1385,7 +1494,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="83.25" customHeight="1">
       <c r="B18" s="16">
         <v>13</v>
       </c>
@@ -1399,7 +1508,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="83.25" customHeight="1">
       <c r="B19" s="16">
         <v>14</v>
       </c>
@@ -1413,7 +1522,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="83.25" customHeight="1">
       <c r="B20" s="16">
         <v>15</v>
       </c>
@@ -1427,7 +1536,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="83.25" customHeight="1">
       <c r="B21" s="16">
         <v>16</v>
       </c>
@@ -1441,7 +1550,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="83.25" customHeight="1">
       <c r="B22" s="16">
         <v>17</v>
       </c>
@@ -1455,7 +1564,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" ht="83.25" customHeight="1">
       <c r="B23" s="16">
         <v>18</v>
       </c>
@@ -1469,7 +1578,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" ht="83.25" customHeight="1">
       <c r="B24" s="16">
         <v>19</v>
       </c>
@@ -1483,7 +1592,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" ht="83.25" customHeight="1">
       <c r="B25" s="16">
         <v>20</v>
       </c>
@@ -1497,7 +1606,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="83.25" customHeight="1">
       <c r="B26" s="16">
         <v>21</v>
       </c>
@@ -1511,7 +1620,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" ht="83.25" customHeight="1">
       <c r="B27" s="16">
         <v>22</v>
       </c>
@@ -1525,7 +1634,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" ht="83.25" customHeight="1">
       <c r="B28" s="16">
         <v>23</v>
       </c>
@@ -1539,7 +1648,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" ht="83.25" customHeight="1">
       <c r="B29" s="16">
         <v>24</v>
       </c>
@@ -1553,7 +1662,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" ht="83.25" customHeight="1">
       <c r="B30" s="16">
         <v>25</v>
       </c>
@@ -1567,7 +1676,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="83.25" customHeight="1">
       <c r="B31" s="16">
         <v>26</v>
       </c>
@@ -1581,7 +1690,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="83.25" customHeight="1">
       <c r="B32" s="16">
         <v>27</v>
       </c>
@@ -1595,7 +1704,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" ht="83.25" customHeight="1">
       <c r="B33" s="16">
         <v>28</v>
       </c>
@@ -1609,7 +1718,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" ht="83.25" customHeight="1">
       <c r="B34" s="16">
         <v>29</v>
       </c>
@@ -1623,7 +1732,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="83.25" customHeight="1">
       <c r="B35" s="16">
         <v>30</v>
       </c>
@@ -1637,7 +1746,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" ht="83.25" customHeight="1">
       <c r="B36" s="16">
         <v>31</v>
       </c>
@@ -1651,7 +1760,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" ht="83.25" customHeight="1">
       <c r="B37" s="16">
         <v>32</v>
       </c>
@@ -1665,7 +1774,7 @@
       <c r="J37" s="19"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="83.25" customHeight="1">
       <c r="B38" s="16">
         <v>33</v>
       </c>
@@ -1679,7 +1788,7 @@
       <c r="J38" s="19"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" ht="83.25" customHeight="1">
       <c r="B39" s="16">
         <v>34</v>
       </c>
@@ -1693,7 +1802,7 @@
       <c r="J39" s="19"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" ht="83.25" customHeight="1">
       <c r="B40" s="16">
         <v>35</v>
       </c>
@@ -1707,7 +1816,7 @@
       <c r="J40" s="19"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" ht="83.25" customHeight="1">
       <c r="B41" s="16">
         <v>36</v>
       </c>
@@ -1721,7 +1830,7 @@
       <c r="J41" s="19"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" ht="83.25" customHeight="1">
       <c r="B42" s="16">
         <v>37</v>
       </c>
@@ -1735,7 +1844,7 @@
       <c r="J42" s="19"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" ht="83.25" customHeight="1">
       <c r="B43" s="16">
         <v>38</v>
       </c>
@@ -1749,7 +1858,7 @@
       <c r="J43" s="19"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" ht="83.25" customHeight="1">
       <c r="B44" s="16">
         <v>39</v>
       </c>
@@ -1763,7 +1872,7 @@
       <c r="J44" s="19"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" ht="83.25" customHeight="1">
       <c r="B45" s="16">
         <v>40</v>
       </c>
@@ -1777,7 +1886,7 @@
       <c r="J45" s="19"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" ht="83.25" customHeight="1">
       <c r="B46" s="21"/>
       <c r="C46" s="22"/>
       <c r="D46" s="22"/>
@@ -1821,15 +1930,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K46" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K46">
       <formula1>"Open,Close,Waiting,Clear"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6:G46" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6:G46">
       <formula1>"High,Middle,low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:F46" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:F46">
       <formula1>功能</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1841,59 +1950,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2">
       <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2">
       <c r="B3" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2">
       <c r="B4" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="33" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" ht="30">
       <c r="B5" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2">
       <c r="B6" s="27"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2">
       <c r="B7" s="27"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2">
       <c r="B8" s="29"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:2">
       <c r="B9" s="29"/>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:2">
       <c r="B10" s="29"/>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:2">
       <c r="B11" s="29"/>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:2">
       <c r="B12" s="29"/>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:2">
       <c r="B13" s="30"/>
     </row>
   </sheetData>

--- a/StarlingX_CentOS8.0_Kernel_Upgrade_Q&A List.xlsx
+++ b/StarlingX_CentOS8.0_Kernel_Upgrade_Q&A List.xlsx
@@ -688,14 +688,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1174,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1194,18 +1194,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="23.4">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="2:11">
       <c r="J2" s="2" t="s">
@@ -1358,7 +1358,7 @@
       <c r="D9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -1382,7 +1382,7 @@
       <c r="D10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="17" t="s">

--- a/StarlingX_CentOS8.0_Kernel_Upgrade_Q&A List.xlsx
+++ b/StarlingX_CentOS8.0_Kernel_Upgrade_Q&A List.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>StarlingX CentOS8.0 Kernel upgrade Q&amp;A List</t>
   </si>
@@ -223,6 +223,66 @@
 Do you need to replace all of them with python3?</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>Python-keystoneauth1 upgrade el8 compile dependency problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Python-keystoneauth will depend on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>python3-oslotest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> when compiling.
+Python3-oslotest will depend on python3-mox3 when compiling.
+Python3-mox3 will depend on python3-stestr when compiling.
+Python3-stestr will depend on python3-subunit2sql when compiling,
+Python3-subunit2sql will depend on python3-oslo-concurrency when compiling,
+However, python3-oslo-concurrency in turn depends on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>python3-oslotest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+How should this work?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +292,7 @@
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -291,6 +351,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="微软雅黑"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
     </font>
   </fonts>
@@ -1174,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1213,7 +1278,7 @@
       </c>
       <c r="K2" s="3">
         <f>COUNTA($C$6:$C$1998)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -1222,7 +1287,7 @@
       </c>
       <c r="K3" s="3">
         <f>K2-COUNTIF($K$6:$K$1998,"OK")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="5.4" customHeight="1"/>
@@ -1400,11 +1465,21 @@
       <c r="B11" s="16">
         <v>6</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="31">
+        <v>43787</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="H11" s="17"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>

--- a/StarlingX_CentOS8.0_Kernel_Upgrade_Q&A List.xlsx
+++ b/StarlingX_CentOS8.0_Kernel_Upgrade_Q&A List.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dongqicx\Desktop\centos8\Centos8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Centos8\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFC085C-F036-449A-9B6E-84D3718E886D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="990"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q&amp;A" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="功能">Define!$B$3:$B$13</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>StarlingX CentOS8.0 Kernel upgrade Q&amp;A List</t>
   </si>
@@ -283,11 +284,22 @@
 How should this work?</t>
     </r>
   </si>
+  <si>
+    <t>When compiling iso, I encountered the following problems.
+In build-tools / build_iso / cgts_deps.sh file on lines 109 to 110.
+Command: repoquery –whatprovides xx
+                The command currently finds the following two problems
+1) -whatprovides is not followed by multiple parameters, only one query at a time.
+2) When the following parameter of –whatprovides is in the following format, the result cannot be queried correctly.
+"Glibc-common = 2.28-42.el8_0.1" "glibc-langpack = 2.28-42.el8_0.1"
+In the end, the compilation will be terminated if the dependent package cannot be found.
+But in fact, there are two dependent providers.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
@@ -765,9 +777,17 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="1"/>
+    <cellStyle name="样式 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="31"/>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1236,11 +1256,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1278,7 +1298,7 @@
       </c>
       <c r="K2" s="3">
         <f>COUNTA($C$6:$C$1998)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -1287,7 +1307,7 @@
       </c>
       <c r="K3" s="3">
         <f>K2-COUNTIF($K$6:$K$1998,"OK")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="5.4" customHeight="1"/>
@@ -1461,7 +1481,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:11" ht="83.25" customHeight="1">
+    <row r="11" spans="2:11" ht="83.25" customHeight="1" thickBot="1">
       <c r="B11" s="16">
         <v>6</v>
       </c>
@@ -1485,19 +1505,31 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" ht="83.25" customHeight="1">
+    <row r="12" spans="2:11" ht="255.6" thickTop="1">
       <c r="B12" s="16">
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="31">
+        <v>43809</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>27</v>
+      </c>
       <c r="H12" s="17"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="2:11" ht="83.25" customHeight="1">
       <c r="B13" s="16">
@@ -1980,40 +2012,45 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B7:B45 B6:K6">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$K$6="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>$K$6="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>$K$6="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>$K$6="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$K$6="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
+  <conditionalFormatting sqref="D12">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>$K$6="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K46">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K46" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Open,Close,Waiting,Clear"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6:G46">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G6:G46" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High,Middle,low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:F46">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:F46" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>功能</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2025,7 +2062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
